--- a/data/output/Pedido_Semana_07_15022026_maf.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_maf.xlsx
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>6</v>
       </c>
       <c r="T5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" s="8" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>3.8</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="8" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T7" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7" s="8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" hidden="1">
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T8" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="8" t="n">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="2" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>16.05</v>
@@ -1719,7 +1719,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="2" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>4.55</v>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>21.15</v>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" s="2" t="n">
         <v>0</v>
@@ -2124,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" s="2" t="n">
         <v>0</v>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>14</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T21" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="8" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T22" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="8" t="n">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>0</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>9</v>
       </c>
       <c r="T23" s="3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U23" s="8" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>12.5</v>
@@ -2448,7 +2448,7 @@
         <v>3</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S24" s="2" t="n">
         <v>0</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>2.42</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>100.1</v>
@@ -2772,13 +2772,13 @@
         <v>0</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T28" s="3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U28" s="8" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>102</v>
@@ -2853,16 +2853,16 @@
         <v>7</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S29" s="2" t="n">
         <v>20</v>
       </c>
       <c r="T29" s="3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="U29" s="8" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" hidden="1">
@@ -3157,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>24.15</v>
@@ -3177,13 +3177,13 @@
         <v>0</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" s="8" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>7.1</v>
@@ -3339,7 +3339,7 @@
         <v>0</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S35" s="2" t="n">
         <v>0</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>14.6</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>11.4</v>
@@ -3501,13 +3501,13 @@
         <v>0</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>2</v>
       </c>
       <c r="T37" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" s="8" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>6.8</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S42" s="2" t="n">
         <v>4</v>
       </c>
       <c r="T42" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U42" s="8" t="n">
         <v>0</v>
@@ -4048,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>129.15</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S44" s="2" t="n">
         <v>0</v>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>39.15</v>
@@ -4230,13 +4230,13 @@
         <v>0</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T46" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="8" t="n">
         <v>0</v>
@@ -4372,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>36.57</v>
@@ -4392,13 +4392,13 @@
         <v>0</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S48" s="2" t="n">
         <v>8</v>
       </c>
       <c r="T48" s="3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U48" s="8" t="n">
         <v>0</v>
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>10.85</v>
@@ -4473,13 +4473,13 @@
         <v>0</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S49" s="2" t="n">
         <v>5</v>
       </c>
       <c r="T49" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U49" s="8" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>43</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>236.18</v>
@@ -4554,13 +4554,13 @@
         <v>0</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="S50" s="2" t="n">
         <v>24</v>
       </c>
       <c r="T50" s="3" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="U50" s="8" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>13.88</v>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>3.3</v>
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S55" s="2" t="n">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="2" t="n">
         <v>0</v>
@@ -5121,7 +5121,7 @@
         <v>2</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S57" s="2" t="n">
         <v>0</v>
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S58" s="2" t="n">
         <v>0</v>
@@ -5506,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="6" t="n">
         <v>37.88</v>
@@ -5526,7 +5526,7 @@
         <v>7</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62" s="2" t="n">
         <v>0</v>
@@ -5607,7 +5607,7 @@
         <v>2</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" s="2" t="n">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>3</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S64" s="2" t="n">
         <v>0</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>7</v>
@@ -5850,7 +5850,7 @@
         <v>2</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S66" s="2" t="n">
         <v>0</v>
@@ -5931,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S67" s="2" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>11</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S69" s="2" t="n">
         <v>0</v>
@@ -6120,7 +6120,7 @@
         </is>
       </c>
       <c r="C72" s="5" t="n">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_07_15022026_maf.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_maf.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>9.75</v>
@@ -808,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>13</v>
@@ -889,7 +889,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>58.8</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>3.8</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>7.95</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>13.8</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>14.45</v>
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>28.95</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>18.02</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>2.15</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>4.95</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>16.05</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>3.18</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>2.12</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>4.55</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>17.4</v>
@@ -2023,7 +2023,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>21.15</v>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>5.9</v>
@@ -2185,7 +2185,7 @@
         <v>2</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>14</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>4.8</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>4.85</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>12.5</v>
@@ -2509,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>2.42</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>6.08</v>
@@ -2671,7 +2671,7 @@
         <v>2</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>55.12</v>
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>100.1</v>
@@ -2833,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>102</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>43.1</v>
@@ -2995,7 +2995,7 @@
         <v>2</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>15.6</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>7.22</v>
@@ -3157,7 +3157,7 @@
         <v>5</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>24.15</v>
@@ -3238,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>16.5</v>
@@ -3319,7 +3319,7 @@
         <v>2</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>7.1</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>14.6</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>11.4</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>12.8</v>
@@ -3643,7 +3643,7 @@
         <v>2</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>32.6</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>6.8</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>26.75</v>
@@ -3886,7 +3886,7 @@
         <v>4</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>136.5</v>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>11.6</v>
@@ -4048,7 +4048,7 @@
         <v>3</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>129.15</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>10.18</v>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>39.15</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>1.65</v>
@@ -4372,7 +4372,7 @@
         <v>3</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>36.57</v>
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>10.85</v>
@@ -4534,7 +4534,7 @@
         <v>43</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>236.18</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="L51" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M51" s="6" t="n">
         <v>22.88</v>
@@ -4696,7 +4696,7 @@
         <v>1</v>
       </c>
       <c r="L52" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="6" t="n">
         <v>13.88</v>
@@ -4777,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="L53" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" s="6" t="n">
         <v>3.3</v>
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="L54" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" s="6" t="n">
         <v>10.58</v>
@@ -4939,7 +4939,7 @@
         <v>1</v>
       </c>
       <c r="L55" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" s="6" t="n">
         <v>6.5</v>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" s="6" t="n">
         <v>4.32</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" s="6" t="n">
         <v>4.2</v>
@@ -5182,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="L58" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="6" t="n">
         <v>5.98</v>
@@ -5263,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" s="6" t="n">
         <v>15.2</v>
@@ -5344,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" s="6" t="n">
         <v>43.58</v>
@@ -5425,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="L61" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="6" t="n">
         <v>14.6</v>
@@ -5506,7 +5506,7 @@
         <v>2</v>
       </c>
       <c r="L62" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" s="6" t="n">
         <v>37.88</v>
@@ -5587,7 +5587,7 @@
         <v>1</v>
       </c>
       <c r="L63" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="6" t="n">
         <v>16.62</v>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="6" t="n">
         <v>15.05</v>
@@ -5749,7 +5749,7 @@
         <v>1</v>
       </c>
       <c r="L65" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="6" t="n">
         <v>18.65</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="L66" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" s="6" t="n">
         <v>7</v>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" s="6" t="n">
         <v>23.4</v>
@@ -5992,7 +5992,7 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" s="6" t="n">
         <v>5.32</v>
@@ -6073,7 +6073,7 @@
         <v>3</v>
       </c>
       <c r="L69" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69" s="6" t="n">
         <v>0</v>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="C83" s="5" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
